--- a/plots/basic_stats/single_var_stats/allmus_summary_var-size.xlsx
+++ b/plots/basic_stats/single_var_stats/allmus_summary_var-size.xlsx
@@ -386,10 +386,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>2361</v>
+        <v>2427</v>
       </c>
       <c r="C2">
-        <v>58.85</v>
+        <v>57.39</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -404,10 +404,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>1003</v>
+        <v>1028</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>24.31</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -422,10 +422,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="C4">
-        <v>13.14</v>
+        <v>12.91</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -440,10 +440,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="C5">
-        <v>2.69</v>
+        <v>5.11</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
